--- a/testdata/testdata-001.xlsx
+++ b/testdata/testdata-001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoyag/git/change-design/prd-dev-04/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9271023-CB2E-B640-8C2F-C26217DEC2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6145A-E720-0A43-B142-E7EFABF87D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="700" windowWidth="32120" windowHeight="13600" xr2:uid="{98BA220D-8F62-F24D-A475-F402DF59415A}"/>
+    <workbookView xWindow="200" yWindow="700" windowWidth="34260" windowHeight="13600" xr2:uid="{98BA220D-8F62-F24D-A475-F402DF59415A}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧定義" sheetId="3" r:id="rId1"/>
@@ -217,7 +217,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -313,13 +313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -334,13 +334,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -663,7 +663,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/testdata/testdata-001.xlsx
+++ b/testdata/testdata-001.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoyag/git/change-design/prd-dev-04/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6145A-E720-0A43-B142-E7EFABF87D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF38F08-D54F-3A42-914E-F06C962AA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="700" windowWidth="34260" windowHeight="13600" xr2:uid="{98BA220D-8F62-F24D-A475-F402DF59415A}"/>
+    <workbookView xWindow="200" yWindow="700" windowWidth="29680" windowHeight="13600" xr2:uid="{98BA220D-8F62-F24D-A475-F402DF59415A}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧定義" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>アプリID</t>
     <phoneticPr fontId="1"/>
@@ -98,29 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>就業中（五十音順）</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">シュウギョウチュウ </t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t xml:space="preserve">ゴジュウオンジュン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>就業中（社員コード順）</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">シュウギョウチュウ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>（</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">シャイｎ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>就業中（入社日順）</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">シュウギョウチュウ </t>
@@ -208,6 +186,126 @@
   </si>
   <si>
     <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み条件</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シボリコミジョウケｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員氏名</t>
+  </si>
+  <si>
+    <t>所属部門</t>
+  </si>
+  <si>
+    <t>就業状況</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>姓で絞り込み</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">シボリコミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名・姓 = "赤井"</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シメイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">アカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員（五十音順）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼンイｎ </t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">ゴジュウオンジュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員（社員コード順）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼンイｎ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>（</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シャイｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業状況 in ("就業中")</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シュウギョウジョウキョウ </t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t xml:space="preserve">シュウギョウチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休業中・退職（入社日順、今月作成分）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キュウギョウ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">タイショク </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>（</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">ニュウシャビ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">コンゲツ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">サクセイブｎ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日#1-降順</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シュウギョウジョウキョウ キュウギョウチュウ タイショク ニュウシャビ コウジュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業状況 in ("休業中", "退職") and 作成日時 &gt;= THIS_MONTH()</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">サクセイニチジ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -256,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,13 +401,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +499,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,15 +839,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B8C52-99DF-E34E-B669-D984BE64E6C2}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
     <col min="2" max="8" width="23.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" style="1" customWidth="1"/>
     <col min="10" max="11" width="13.42578125" customWidth="1"/>
@@ -693,10 +872,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -708,126 +887,285 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:H5" si="0">C3</f>
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f t="shared" ref="C6:H6" si="0">C3</f>
         <v>社員氏名</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>所属部門</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>就業状況</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>更新日時</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>更新者</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>C6</f>
+        <v>社員氏名</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f>E6</f>
+        <v>所属部門</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>F6</f>
+        <v>就業状況</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>G6</f>
+        <v>更新日時</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>H6</f>
+        <v>更新者</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f>C5</f>
-        <v>社員氏名</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="str">
-        <f>E5</f>
-        <v>所属部門</v>
-      </c>
-      <c r="G7" s="6" t="str">
-        <f>F5</f>
-        <v>就業状況</v>
-      </c>
-      <c r="H7" s="6" t="str">
-        <f>G5</f>
-        <v>更新日時</v>
-      </c>
-      <c r="I7" s="6" t="str">
-        <f>H5</f>
-        <v>更新者</v>
-      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
